--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Jag2-Notch3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Jag2-Notch3.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.235147999999999</v>
+        <v>19.35876433333334</v>
       </c>
       <c r="H2">
-        <v>21.705444</v>
+        <v>58.07629300000001</v>
       </c>
       <c r="I2">
-        <v>0.9254344869740032</v>
+        <v>0.9707667559429034</v>
       </c>
       <c r="J2">
-        <v>0.9254344869740032</v>
+        <v>0.9707667559429034</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.847498666666667</v>
+        <v>7.413580666666667</v>
       </c>
       <c r="N2">
-        <v>14.542496</v>
+        <v>22.240742</v>
       </c>
       <c r="O2">
-        <v>0.03400671694637637</v>
+        <v>0.05108888817597561</v>
       </c>
       <c r="P2">
-        <v>0.03400671694637637</v>
+        <v>0.05108888817597561</v>
       </c>
       <c r="Q2">
-        <v>35.072370283136</v>
+        <v>143.5177609921563</v>
       </c>
       <c r="R2">
-        <v>315.6513325482239</v>
+        <v>1291.659848929406</v>
       </c>
       <c r="S2">
-        <v>0.03147098865093995</v>
+        <v>0.04959539423932161</v>
       </c>
       <c r="T2">
-        <v>0.03147098865093995</v>
+        <v>0.0495953942393216</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.235147999999999</v>
+        <v>19.35876433333334</v>
       </c>
       <c r="H3">
-        <v>21.705444</v>
+        <v>58.07629300000001</v>
       </c>
       <c r="I3">
-        <v>0.9254344869740032</v>
+        <v>0.9707667559429034</v>
       </c>
       <c r="J3">
-        <v>0.9254344869740032</v>
+        <v>0.9707667559429034</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>4.88128</v>
       </c>
       <c r="O3">
-        <v>0.01141456784970118</v>
+        <v>0.0112127179963522</v>
       </c>
       <c r="P3">
-        <v>0.01141456784970118</v>
+        <v>0.0112127179963522</v>
       </c>
       <c r="Q3">
-        <v>11.77226107648</v>
+        <v>31.49851638833779</v>
       </c>
       <c r="R3">
-        <v>105.95034968832</v>
+        <v>283.4866474950401</v>
       </c>
       <c r="S3">
-        <v>0.01056343474201816</v>
+        <v>0.01088493387462144</v>
       </c>
       <c r="T3">
-        <v>0.01056343474201816</v>
+        <v>0.01088493387462144</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.235147999999999</v>
+        <v>19.35876433333334</v>
       </c>
       <c r="H4">
-        <v>21.705444</v>
+        <v>58.07629300000001</v>
       </c>
       <c r="I4">
-        <v>0.9254344869740032</v>
+        <v>0.9707667559429034</v>
       </c>
       <c r="J4">
-        <v>0.9254344869740032</v>
+        <v>0.9707667559429034</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>408.212212</v>
       </c>
       <c r="O4">
-        <v>0.9545787152039225</v>
+        <v>0.9376983938276722</v>
       </c>
       <c r="P4">
-        <v>0.9545787152039225</v>
+        <v>0.9376983938276722</v>
       </c>
       <c r="Q4">
-        <v>984.4919230757919</v>
+        <v>2634.161336698902</v>
       </c>
       <c r="R4">
-        <v>8860.427307682126</v>
+        <v>23707.45203029012</v>
       </c>
       <c r="S4">
-        <v>0.8834000635810451</v>
+        <v>0.9102864278289603</v>
       </c>
       <c r="T4">
-        <v>0.8834000635810451</v>
+        <v>0.9102864278289603</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,13 +723,13 @@
         <v>0.3016356666666667</v>
       </c>
       <c r="H5">
-        <v>0.904907</v>
+        <v>0.9049070000000001</v>
       </c>
       <c r="I5">
-        <v>0.03858166390441884</v>
+        <v>0.01512585579145048</v>
       </c>
       <c r="J5">
-        <v>0.03858166390441884</v>
+        <v>0.01512585579145048</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.847498666666667</v>
+        <v>7.413580666666667</v>
       </c>
       <c r="N5">
-        <v>14.542496</v>
+        <v>22.240742</v>
       </c>
       <c r="O5">
-        <v>0.03400671694637637</v>
+        <v>0.05108888817597561</v>
       </c>
       <c r="P5">
-        <v>0.03400671694637637</v>
+        <v>0.05108888817597561</v>
       </c>
       <c r="Q5">
-        <v>1.462178491985778</v>
+        <v>2.236200346777112</v>
       </c>
       <c r="R5">
-        <v>13.159606427872</v>
+        <v>20.125803120994</v>
       </c>
       <c r="S5">
-        <v>0.001312035723717798</v>
+        <v>0.0007727631550953465</v>
       </c>
       <c r="T5">
-        <v>0.001312035723717798</v>
+        <v>0.0007727631550953465</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>0.3016356666666667</v>
       </c>
       <c r="H6">
-        <v>0.904907</v>
+        <v>0.9049070000000001</v>
       </c>
       <c r="I6">
-        <v>0.03858166390441884</v>
+        <v>0.01512585579145048</v>
       </c>
       <c r="J6">
-        <v>0.03858166390441884</v>
+        <v>0.01512585579145048</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>4.88128</v>
       </c>
       <c r="O6">
-        <v>0.01141456784970118</v>
+        <v>0.0112127179963522</v>
       </c>
       <c r="P6">
-        <v>0.01141456784970118</v>
+        <v>0.0112127179963522</v>
       </c>
       <c r="Q6">
         <v>0.490789382328889</v>
       </c>
       <c r="R6">
-        <v>4.41710444096</v>
+        <v>4.417104440960001</v>
       </c>
       <c r="S6">
-        <v>0.0004403930203913558</v>
+        <v>0.0001696019554430249</v>
       </c>
       <c r="T6">
-        <v>0.0004403930203913558</v>
+        <v>0.000169601955443025</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,13 +847,13 @@
         <v>0.3016356666666667</v>
       </c>
       <c r="H7">
-        <v>0.904907</v>
+        <v>0.9049070000000001</v>
       </c>
       <c r="I7">
-        <v>0.03858166390441884</v>
+        <v>0.01512585579145048</v>
       </c>
       <c r="J7">
-        <v>0.03858166390441884</v>
+        <v>0.01512585579145048</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>408.212212</v>
       </c>
       <c r="O7">
-        <v>0.9545787152039225</v>
+        <v>0.9376983938276722</v>
       </c>
       <c r="P7">
-        <v>0.9545787152039225</v>
+        <v>0.9376983938276722</v>
       </c>
       <c r="Q7">
         <v>41.04378756936489</v>
@@ -880,10 +880,10 @@
         <v>369.3940881242841</v>
       </c>
       <c r="S7">
-        <v>0.03682923516030968</v>
+        <v>0.0141834906809121</v>
       </c>
       <c r="T7">
-        <v>0.03682923516030968</v>
+        <v>0.01418349068091211</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.2813256666666667</v>
+        <v>0.2813256666666666</v>
       </c>
       <c r="H8">
-        <v>0.8439770000000001</v>
+        <v>0.843977</v>
       </c>
       <c r="I8">
-        <v>0.03598384912157791</v>
+        <v>0.01410738826564608</v>
       </c>
       <c r="J8">
-        <v>0.03598384912157791</v>
+        <v>0.01410738826564608</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.847498666666667</v>
+        <v>7.413580666666667</v>
       </c>
       <c r="N8">
-        <v>14.542496</v>
+        <v>22.240742</v>
       </c>
       <c r="O8">
-        <v>0.03400671694637637</v>
+        <v>0.05108888817597561</v>
       </c>
       <c r="P8">
-        <v>0.03400671694637637</v>
+        <v>0.05108888817597561</v>
       </c>
       <c r="Q8">
-        <v>1.363725794065778</v>
+        <v>2.085630523437111</v>
       </c>
       <c r="R8">
-        <v>12.273532146592</v>
+        <v>18.770674710934</v>
       </c>
       <c r="S8">
-        <v>0.001223692571718614</v>
+        <v>0.0007207307815586631</v>
       </c>
       <c r="T8">
-        <v>0.001223692571718614</v>
+        <v>0.0007207307815586631</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.2813256666666667</v>
+        <v>0.2813256666666666</v>
       </c>
       <c r="H9">
-        <v>0.8439770000000001</v>
+        <v>0.843977</v>
       </c>
       <c r="I9">
-        <v>0.03598384912157791</v>
+        <v>0.01410738826564608</v>
       </c>
       <c r="J9">
-        <v>0.03598384912157791</v>
+        <v>0.01410738826564608</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>4.88128</v>
       </c>
       <c r="O9">
-        <v>0.01141456784970118</v>
+        <v>0.0112127179963522</v>
       </c>
       <c r="P9">
-        <v>0.01141456784970118</v>
+        <v>0.0112127179963522</v>
       </c>
       <c r="Q9">
-        <v>0.457743116728889</v>
+        <v>0.4577431167288889</v>
       </c>
       <c r="R9">
-        <v>4.119688050560001</v>
+        <v>4.11968805056</v>
       </c>
       <c r="S9">
-        <v>0.0004107400872916614</v>
+        <v>0.0001581821662877377</v>
       </c>
       <c r="T9">
-        <v>0.0004107400872916614</v>
+        <v>0.0001581821662877377</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.2813256666666667</v>
+        <v>0.2813256666666666</v>
       </c>
       <c r="H10">
-        <v>0.8439770000000001</v>
+        <v>0.843977</v>
       </c>
       <c r="I10">
-        <v>0.03598384912157791</v>
+        <v>0.01410738826564608</v>
       </c>
       <c r="J10">
-        <v>0.03598384912157791</v>
+        <v>0.01410738826564608</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>408.212212</v>
       </c>
       <c r="O10">
-        <v>0.9545787152039225</v>
+        <v>0.9376983938276722</v>
       </c>
       <c r="P10">
-        <v>0.9545787152039225</v>
+        <v>0.9376983938276722</v>
       </c>
       <c r="Q10">
         <v>38.28019089412489</v>
       </c>
       <c r="R10">
-        <v>344.5217180471241</v>
+        <v>344.521718047124</v>
       </c>
       <c r="S10">
-        <v>0.03434941646256764</v>
+        <v>0.01322847531779968</v>
       </c>
       <c r="T10">
-        <v>0.03434941646256764</v>
+        <v>0.01322847531779968</v>
       </c>
     </row>
   </sheetData>
